--- a/Chandrashekhar MH/Chandrashekhar.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="121">
   <si>
     <t>Version</t>
   </si>
@@ -139,7 +139,7 @@
     <t>C3 Automation</t>
   </si>
   <si>
-    <t>Dummy5432454</t>
+    <t>Dummy123</t>
   </si>
   <si>
     <t>Dummy45 descripation</t>
@@ -172,7 +172,7 @@
     <t>bbb</t>
   </si>
   <si>
-    <t>Dummy543245412</t>
+    <t>Dummy12345</t>
   </si>
   <si>
     <t>Dummy4512 descripation</t>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>SW CTS Dev</t>
+  </si>
+  <si>
+    <t>Dummy123456</t>
   </si>
   <si>
     <t>Sun</t>
@@ -1653,7 +1656,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1861,7 +1864,7 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
@@ -1910,19 +1913,19 @@
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X5" t="s">
         <v>26</v>
       </c>
       <c r="Y5" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="8:24">
@@ -1930,16 +1933,16 @@
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W6" t="s">
         <v>41</v>
       </c>
       <c r="X6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="8:24">
@@ -1947,127 +1950,127 @@
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="V7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="8:24">
       <c r="H8" s="14"/>
       <c r="V8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="8:24">
       <c r="H9" s="14"/>
       <c r="V9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="8:24">
       <c r="H10" s="14"/>
       <c r="V10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="8:24">
       <c r="H11" s="14"/>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="8:24">
       <c r="H12" s="14"/>
       <c r="V12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="8:24">
       <c r="H13" s="14"/>
       <c r="V13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X13" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="8:24">
       <c r="H14" s="14"/>
       <c r="V14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="X14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="8:22">
       <c r="H15" s="14"/>
       <c r="V15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="8:22">
       <c r="H16" s="14"/>
       <c r="V16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="8:22">
       <c r="H17" s="14"/>
       <c r="V17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="8:22">
       <c r="H18" s="14"/>
       <c r="V18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="8:22">
       <c r="H19" s="14"/>
       <c r="V19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="8:22">
@@ -2079,101 +2082,101 @@
     <row r="21" spans="8:22">
       <c r="H21" s="14"/>
       <c r="V21" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="8:22">
       <c r="H22" s="14"/>
       <c r="V22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="8:22">
       <c r="H23" s="14"/>
       <c r="V23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="8:22">
       <c r="H24" s="14"/>
       <c r="V24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="8:22">
       <c r="H25" s="14"/>
       <c r="V25" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="8:22">
       <c r="H26" s="14"/>
       <c r="V26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="8:22">
       <c r="H27" s="14"/>
       <c r="V27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="8:22">
       <c r="H28" s="14"/>
       <c r="V28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="8:22">
       <c r="H29" s="14"/>
       <c r="V29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="8:22">
       <c r="H30" s="14"/>
       <c r="V30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="8:22">
       <c r="H31" s="14"/>
       <c r="V31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="22:22">
       <c r="V32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="22:22">
       <c r="V33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2 B3 B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B4">
       <formula1>$U$2:$U$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C3">
-      <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F3 F4">
-      <formula1>"Task,SubTask"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H3 H4 H5:H31">
-      <formula1>$V$2:$V$33</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2 L3 L4">
-      <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B31">
       <formula1>"Chandrayan 3,iCook(MPP),Automation Tool Dev,Sun,Everest(C2Gen2)"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>INDIRECT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,"(",""),")","")," ","_"))</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C31">
       <formula1>INDIRECT(SUBSTITUTE(B5," ","_"))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4">
+      <formula1>"Task,SubTask"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H31">
+      <formula1>$V$2:$V$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4">
+      <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2200,24 +2203,24 @@
   <sheetData>
     <row r="3" ht="23.25" spans="4:4">
       <c r="D3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="5:5">
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" ht="15.75" spans="4:7">
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="5:7">
@@ -2225,21 +2228,21 @@
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="5:7">
       <c r="E9" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="5:7">
@@ -2247,7 +2250,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>33</v>
@@ -2258,18 +2261,18 @@
         <v>9</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="5:7">
       <c r="E12" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G12" s="7">
         <v>12345657</v>
@@ -2277,35 +2280,35 @@
     </row>
     <row r="13" spans="5:7">
       <c r="E13" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="5:7">
       <c r="E14" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="5:7">
       <c r="E15" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="5:7">
@@ -2313,7 +2316,7 @@
         <v>18</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>31</v>
@@ -2324,7 +2327,7 @@
         <v>19</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>32</v>
@@ -2335,15 +2338,15 @@
         <v>20</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" ht="18.75" spans="3:3">
       <c r="C22" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -2351,7 +2354,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" s="10"/>
     </row>
@@ -2360,7 +2363,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekhar MH/Chandrashekhar.xlsx
+++ b/Chandrashekhar MH/Chandrashekhar.xlsx
@@ -1656,7 +1656,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1769,10 +1769,10 @@
         <v>20</v>
       </c>
       <c r="J2" s="15">
-        <v>45483</v>
+        <v>45545</v>
       </c>
       <c r="K2" s="15">
-        <v>45575</v>
+        <v>45636</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>
@@ -1824,10 +1824,10 @@
         <v>20</v>
       </c>
       <c r="J3" s="15">
-        <v>45483</v>
+        <v>45545</v>
       </c>
       <c r="K3" s="15">
-        <v>45575</v>
+        <v>45636</v>
       </c>
       <c r="L3" t="s">
         <v>31</v>
@@ -1879,10 +1879,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="15">
-        <v>45483</v>
+        <v>45545</v>
       </c>
       <c r="K4" s="15">
-        <v>45575</v>
+        <v>45636</v>
       </c>
       <c r="L4" t="s">
         <v>31</v>
